--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\Wireframes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09013D-3915-45A9-8967-A325F42D6691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FB433-33A0-413E-A851-1D9FF813E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AI-Junior" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Slno</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>What are the details of AI Courses ?</t>
-  </si>
-  <si>
     <t>Where is Anodiam  located ?</t>
   </si>
   <si>
-    <t>What are the course fees ?</t>
-  </si>
-  <si>
     <t>How many AI faculties are there ?</t>
   </si>
   <si>
@@ -67,6 +61,21 @@
   </si>
   <si>
     <t>How Anodiam AI courses are different from other institutes ?</t>
+  </si>
+  <si>
+    <t>What are the AI course fees ?</t>
+  </si>
+  <si>
+    <t>What is the communication facility of Anodiam ?</t>
+  </si>
+  <si>
+    <t>When is the next batch starting ?</t>
+  </si>
+  <si>
+    <t>What are the duration of AI Courses in terms of years,month,week &amp; hours ?</t>
+  </si>
+  <si>
+    <t>Is Anodiam providing certificates after completing the courses ?</t>
   </si>
 </sst>
 </file>
@@ -399,17 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -431,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,6 +548,31 @@
       </c>
       <c r="B13" t="s">
         <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FB433-33A0-413E-A851-1D9FF813E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138F1746-88CE-4F9A-9BD6-4467EF9397BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AI-Junior" sheetId="1" r:id="rId1"/>
+    <sheet name="AI-Schools" sheetId="1" r:id="rId1"/>
+    <sheet name="AI-Professionals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Slno</t>
   </si>
@@ -76,6 +77,15 @@
   </si>
   <si>
     <t>Is Anodiam providing certificates after completing the courses ?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Website(Y/N) ?</t>
   </si>
 </sst>
 </file>
@@ -408,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,9 +429,10 @@
     <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,8 +442,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -442,8 +456,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -453,8 +470,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -464,8 +484,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -475,8 +498,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -486,8 +512,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -497,8 +526,11 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -508,8 +540,11 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -519,8 +554,11 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -530,8 +568,11 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -541,8 +582,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -552,8 +596,11 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -563,8 +610,11 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -573,6 +623,9 @@
       </c>
       <c r="C15" t="s">
         <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -583,4 +636,16 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A759986-3D33-45B9-8127-E12FB0BE78C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138F1746-88CE-4F9A-9BD6-4467EF9397BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="AI-Schools" sheetId="1" r:id="rId1"/>
     <sheet name="AI-Professionals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +30,6 @@
     <t>Slno</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Queries</t>
   </si>
   <si>
@@ -86,12 +82,15 @@
   </si>
   <si>
     <t>Website(Y/N) ?</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,13 +464,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,13 +478,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,13 +520,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,13 +534,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,13 +562,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,13 +576,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,13 +590,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,13 +604,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,19 +618,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{B0F69C07-54CD-48EE-AE40-F6FA89391C22}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"Parent,Student"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Parent,Student,Principal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -639,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A759986-3D33-45B9-8127-E12FB0BE78C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F03376-BA3E-4747-BFF9-B62F81C14846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI-Schools" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Slno</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>Where is Anodiam  located ?</t>
-  </si>
-  <si>
     <t>How many AI faculties are there ?</t>
   </si>
   <si>
@@ -84,13 +82,43 @@
     <t>Website(Y/N) ?</t>
   </si>
   <si>
-    <t>Student</t>
+    <t>Where is Anodiam  located (Address &amp; Phone Number) ?</t>
+  </si>
+  <si>
+    <t>Is Anodiam providing labs for AI ?</t>
+  </si>
+  <si>
+    <t>Is there any internal tests ?</t>
+  </si>
+  <si>
+    <t>Do Anodiam have any App ?</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Do Anodiam provide course materials ?</t>
+  </si>
+  <si>
+    <t>Do Anodiam conduct online classes ?</t>
+  </si>
+  <si>
+    <t>After taking the course what is the prospect of my son/daughter ?</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Will Anodiam conduct classes in school premises ?</t>
+  </si>
+  <si>
+    <t>What are the extra things Anodiam will provide to students other than AI ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,17 +444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -436,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -453,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -523,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -565,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,10 +607,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,10 +621,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,19 +649,131 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"Parent,Student"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Parent,Student,Principal,Teacher"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Parent,Student,Principal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{7207A645-9D0A-4BD8-909E-10728409CD8E}">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F03376-BA3E-4747-BFF9-B62F81C14846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AI-Schools" sheetId="1" r:id="rId1"/>
-    <sheet name="AI-Professionals" sheetId="2" r:id="rId2"/>
+    <sheet name="Anttech &amp; Digital Mkt." sheetId="3" r:id="rId2"/>
+    <sheet name="AI-Professionals" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Slno</t>
   </si>
@@ -113,12 +113,81 @@
   </si>
   <si>
     <t>What are the extra things Anodiam will provide to students other than AI ?</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Our Role</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Business Website</t>
+  </si>
+  <si>
+    <t>Front Page Listing</t>
+  </si>
+  <si>
+    <t>100k Social Media ad burst</t>
+  </si>
+  <si>
+    <t>Whatsapp Integration</t>
+  </si>
+  <si>
+    <t>Their Role</t>
+  </si>
+  <si>
+    <t>Google Rating QR code with Link</t>
+  </si>
+  <si>
+    <t>Implementation after we follow up</t>
+  </si>
+  <si>
+    <t>Convey 3 Keywords</t>
+  </si>
+  <si>
+    <t>Provide Video &lt; 30s</t>
+  </si>
+  <si>
+    <t>Provide Links when Asked</t>
+  </si>
+  <si>
+    <t>Just Dial KW search update</t>
+  </si>
+  <si>
+    <t>AI, IT, Data Science kw to be set</t>
+  </si>
+  <si>
+    <t>Set up auto response</t>
+  </si>
+  <si>
+    <t>Need to follow them up</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Design Course Catalog</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design </t>
+  </si>
+  <si>
+    <t>Contact, Gallery, Footer- social media links &amp; Gmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo, Course List, About Anodiam, Home Page </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,10 +213,142 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -156,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +366,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,10 +1010,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"Parent,Student,Principal,Teacher"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{7207A645-9D0A-4BD8-909E-10728409CD8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -781,7 +1022,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H3:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="30" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="P19:R21"/>
+    <mergeCell ref="P22:R24"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="S19:T21"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="K8:O10"/>
+    <mergeCell ref="K11:O14"/>
+    <mergeCell ref="K15:O18"/>
+    <mergeCell ref="K19:O21"/>
+    <mergeCell ref="K22:O24"/>
+    <mergeCell ref="P8:R10"/>
+    <mergeCell ref="P11:R14"/>
+    <mergeCell ref="P15:R18"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="S8:T10"/>
+    <mergeCell ref="S11:T14"/>
+    <mergeCell ref="S15:T18"/>
+    <mergeCell ref="H5:J7"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="K3:O4"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="H11:J14"/>
+    <mergeCell ref="H15:J18"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="H19:J21"/>
+    <mergeCell ref="H22:J24"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="H3:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
+++ b/Offline/BusinessManagement/Website/Requirement-Analysis.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Slno</t>
   </si>
@@ -178,10 +178,7 @@
     <t xml:space="preserve">Design </t>
   </si>
   <si>
-    <t>Contact, Gallery, Footer- social media links &amp; Gmap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logo, Course List, About Anodiam, Home Page </t>
+    <t xml:space="preserve">Logo, Course List, About Anodiam, Home Page, Contact, Gallery, Footer- social media links &amp; Gmap </t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -225,21 +222,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -353,11 +335,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,7 +376,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,16 +393,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,16 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,427 +1036,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H3:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="50.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="6" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="14"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="11"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="14"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="6" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="14"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="6" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="8"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="14"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="6" t="s">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="11"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="11"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="14"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="6" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="8"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="11"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="21" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="14"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="7"/>
     </row>
     <row r="22" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="6" t="s">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="6" t="s">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="8"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="11"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="14"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5" t="s">
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5" t="s">
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="5"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="30" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H30" s="4"/>
@@ -1458,40 +1480,39 @@
       <c r="O30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="P19:R21"/>
-    <mergeCell ref="P22:R24"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="S19:T21"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="K8:O10"/>
-    <mergeCell ref="K11:O14"/>
-    <mergeCell ref="K15:O18"/>
+  <mergeCells count="32">
+    <mergeCell ref="H25:J26"/>
+    <mergeCell ref="K25:O26"/>
+    <mergeCell ref="P25:R26"/>
+    <mergeCell ref="S25:T26"/>
     <mergeCell ref="K19:O21"/>
     <mergeCell ref="K22:O24"/>
     <mergeCell ref="P8:R10"/>
     <mergeCell ref="P11:R14"/>
     <mergeCell ref="P15:R18"/>
-    <mergeCell ref="P5:R7"/>
-    <mergeCell ref="S5:T7"/>
-    <mergeCell ref="S8:T10"/>
-    <mergeCell ref="S11:T14"/>
-    <mergeCell ref="S15:T18"/>
     <mergeCell ref="H5:J7"/>
     <mergeCell ref="H8:J10"/>
     <mergeCell ref="K3:O4"/>
     <mergeCell ref="P3:R4"/>
     <mergeCell ref="S3:T4"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K5:O7"/>
+    <mergeCell ref="K8:O10"/>
+    <mergeCell ref="P5:R7"/>
+    <mergeCell ref="S5:T7"/>
+    <mergeCell ref="S8:T10"/>
     <mergeCell ref="H11:J14"/>
     <mergeCell ref="H15:J18"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:O25"/>
     <mergeCell ref="H19:J21"/>
     <mergeCell ref="H22:J24"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="S11:T14"/>
+    <mergeCell ref="S15:T18"/>
+    <mergeCell ref="P19:R21"/>
+    <mergeCell ref="P22:R24"/>
+    <mergeCell ref="S19:T21"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="K11:O14"/>
+    <mergeCell ref="K15:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
